--- a/preds.xlsx
+++ b/preds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,71 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>openRating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>openminRating</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>openmaxRating</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ratingPis</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ratingminPis</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ratingmaxPis</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>minRating</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>maxRating</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Kda</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>minKda</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>maxKda</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>last10</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Result</t>
         </is>
       </c>
@@ -456,18 +521,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIG</t>
+          <t>FaZe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MIBR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BIG 51.2%</t>
-        </is>
+          <t>Eternal Fire</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.01800000000000002</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.05600000000000016</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3340000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.02000000000000024</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.09000000000000008</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4000000059604645</v>
       </c>
     </row>
     <row r="3">
@@ -476,18 +578,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Newhappy</t>
+          <t>9 Pandas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TYLOO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Newhappy 50.3%</t>
-        </is>
+          <t>3DMAX</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.04066666666666663</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.02666666666666673</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.05916666666666659</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.07166666666666655</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.4079999923706055</v>
       </c>
     </row>
     <row r="4">
@@ -496,18 +635,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apeks</t>
+          <t>SINNERS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9INE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9INE 57.5%</t>
-        </is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.07150000000000012</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.04300000000000026</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.1465000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.05999999999999983</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.1305000000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.1199999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.382999986410141</v>
       </c>
     </row>
     <row r="5">
@@ -516,18 +692,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alliance</t>
+          <t>Natus Vincere</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IKLA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Alliance 73.9%</t>
-        </is>
+          <t>BetBoom</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09499999999999997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04500000000000015</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03999999999999992</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2654999999999996</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.04999999999999993</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1515000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6119999885559082</v>
       </c>
     </row>
     <row r="6">
@@ -536,18 +749,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIG Academy</t>
+          <t>Case</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALTERNATE aTTaX</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BIG Academy 65.9%</t>
-        </is>
+          <t>BESTIA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.09449999999999981</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.07650000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.08999999999999986</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.05999999999999994</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.09950000000000014</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.09000000000000008</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3240000009536743</v>
       </c>
     </row>
     <row r="7">
@@ -556,18 +806,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9 Pandas</t>
+          <t>Espionage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eternal Fire</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9 Pandas 72.6%</t>
-        </is>
+          <t>Permitta</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07466666666666644</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01166666666666649</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.01033333333333331</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.07999999999999985</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1283333333333333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.6320000290870667</v>
       </c>
     </row>
     <row r="8">
@@ -576,18 +863,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>W7M</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Sharks</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>RED Canids</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>RED Canids 72.9%</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04000000000000015</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08999999999999986</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.04999999999999993</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.06666666666666676</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4620000123977661</v>
       </c>
     </row>
     <row r="9">
@@ -596,18 +920,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Verdant</t>
+          <t>Aurora Young Blud</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BIG Academy</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>BIG Academy 60.0%</t>
-        </is>
+          <t>Entropiq</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02833333333333332</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07333333333333336</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1783333333333335</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.09000000000000008</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1300000000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02999999999999992</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5239999890327454</v>
       </c>
     </row>
     <row r="10">
@@ -616,18 +977,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FORZE</t>
+          <t>W7M</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anonymo</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>FORZE 77.4%</t>
-        </is>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04000000000000015</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08999999999999986</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.04999999999999993</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.06666666666666676</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4620000123977661</v>
       </c>
     </row>
     <row r="11">
@@ -636,18 +1034,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EYEBALLERS</t>
+          <t>Zero Tenacity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00NATION</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>00NATION 57.7%</t>
-        </is>
+          <t>Espionage</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.004666666666666597</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06833333333333358</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.05999999999999994</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.05833333333333335</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.05433333333333357</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2649999856948853</v>
       </c>
     </row>
     <row r="12">
@@ -656,18 +1091,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sangal</t>
+          <t>FTW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B8</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>B8 71.0%</t>
-        </is>
+          <t>Alliance</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1300000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.09549999999999992</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.3069999999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1595</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.07999999999999985</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.7179999947547913</v>
       </c>
     </row>
     <row r="13">
@@ -676,58 +1148,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FaZe</t>
+          <t>The Chosen Few</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ninjas in Pyjamas</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FaZe 84.7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ALTERNATE aTTaX</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9 Pandas</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9 Pandas 71.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cloud9</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Natus Vincere</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Cloud9 55.6%</t>
-        </is>
+          <t>Entropiq</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1016666666666666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2699999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.05500000000000005</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5720000267028809</v>
       </c>
     </row>
   </sheetData>
